--- a/Results/Sensitivity/EOL-RIR/Price/EOL_RIR_hist_price_Max.xlsx
+++ b/Results/Sensitivity/EOL-RIR/Price/EOL_RIR_hist_price_Max.xlsx
@@ -397,7 +397,7 @@
         <v>2011</v>
       </c>
       <c r="C1" s="1">
-        <v>2020</v>
+        <v>2030</v>
       </c>
       <c r="D1" s="1">
         <v>2050</v>
@@ -414,13 +414,13 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>2.955995626755165E-14</v>
+        <v>1.625819899935208E-06</v>
       </c>
       <c r="D2">
-        <v>0.001664791307295803</v>
+        <v>0.005885782825730004</v>
       </c>
       <c r="E2">
-        <v>0.004065106765944203</v>
+        <v>0.006492109438477343</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -428,16 +428,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>4.691044125953377E-15</v>
+        <v>2.183980475909259E-12</v>
       </c>
       <c r="C3">
-        <v>8.032666209594646E-09</v>
+        <v>7.919668242014081E-05</v>
       </c>
       <c r="D3">
-        <v>0.001058606147983076</v>
+        <v>0.005501068836496137</v>
       </c>
       <c r="E3">
-        <v>0.003596305710095619</v>
+        <v>0.005498836806399566</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -445,16 +445,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>7.321669688613381E-17</v>
+        <v>3.409259119931335E-14</v>
       </c>
       <c r="C4">
-        <v>1.588828008653702E-09</v>
+        <v>7.154027686980761E-05</v>
       </c>
       <c r="D4">
-        <v>0.0007931982937362548</v>
+        <v>0.003927863988361095</v>
       </c>
       <c r="E4">
-        <v>0.003171595483280042</v>
+        <v>0.004603584064156631</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -465,13 +465,13 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>7.549112679303214E-23</v>
+        <v>1.587093575472107E-09</v>
       </c>
       <c r="D5">
-        <v>1.223194692503425E-05</v>
+        <v>0.0002009765232936477</v>
       </c>
       <c r="E5">
-        <v>0.0002413018472889734</v>
+        <v>0.0003658129441505158</v>
       </c>
     </row>
   </sheetData>
@@ -492,7 +492,7 @@
         <v>2011</v>
       </c>
       <c r="C1" s="1">
-        <v>2020</v>
+        <v>2030</v>
       </c>
       <c r="D1" s="1">
         <v>2050</v>
@@ -587,7 +587,7 @@
         <v>2011</v>
       </c>
       <c r="C1" s="1">
-        <v>2020</v>
+        <v>2030</v>
       </c>
       <c r="D1" s="1">
         <v>2050</v>
@@ -601,16 +601,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.013444709329602E-07</v>
+        <v>3.278497091721097E-06</v>
       </c>
       <c r="C2">
-        <v>1.361756818559186E-05</v>
+        <v>0.002541871850645688</v>
       </c>
       <c r="D2">
-        <v>0.1266827953441403</v>
+        <v>0.5379000242912599</v>
       </c>
       <c r="E2">
-        <v>0.3498475259112285</v>
+        <v>0.4848590208778999</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -618,16 +618,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.048071879604898E-06</v>
+        <v>2.229370101113288E-05</v>
       </c>
       <c r="C3">
-        <v>0.0006461756826888257</v>
+        <v>0.009197341277647557</v>
       </c>
       <c r="D3">
-        <v>0.075856749380545</v>
+        <v>0.3863510865451887</v>
       </c>
       <c r="E3">
-        <v>0.2421667282385033</v>
+        <v>0.3402597778765012</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -635,16 +635,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6.08104089514155E-06</v>
+        <v>6.612099022439717E-05</v>
       </c>
       <c r="C4">
-        <v>0.0001620291158384526</v>
+        <v>0.002447260422877557</v>
       </c>
       <c r="D4">
-        <v>0.04738308718200741</v>
+        <v>0.2766023524654511</v>
       </c>
       <c r="E4">
-        <v>0.2328833888754995</v>
+        <v>0.3027710330745292</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -652,16 +652,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.909822742276567E-06</v>
+        <v>2.076994439830034E-05</v>
       </c>
       <c r="C5">
-        <v>8.486346279457801E-05</v>
+        <v>0.005407093418076853</v>
       </c>
       <c r="D5">
-        <v>0.08542358177263763</v>
+        <v>0.5124365740692156</v>
       </c>
       <c r="E5">
-        <v>0.2358540537555117</v>
+        <v>0.3561425361412697</v>
       </c>
     </row>
   </sheetData>
@@ -682,7 +682,7 @@
         <v>2011</v>
       </c>
       <c r="C1" s="1">
-        <v>2020</v>
+        <v>2030</v>
       </c>
       <c r="D1" s="1">
         <v>2050</v>
@@ -696,16 +696,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>5.031589966768446E-08</v>
+        <v>4.96652837099915E-07</v>
       </c>
       <c r="C2">
-        <v>1.458909525503285E-06</v>
+        <v>3.462735458016471E-05</v>
       </c>
       <c r="D2">
-        <v>0.002641707319413292</v>
+        <v>0.01385766416475183</v>
       </c>
       <c r="E2">
-        <v>0.01383839401004388</v>
+        <v>0.0139053799804532</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -713,16 +713,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>5.367099139082082E-08</v>
+        <v>5.30035999530297E-07</v>
       </c>
       <c r="C3">
-        <v>3.085534049839922E-05</v>
+        <v>0.0001164057132748931</v>
       </c>
       <c r="D3">
-        <v>0.00152498881473661</v>
+        <v>0.006708009055267363</v>
       </c>
       <c r="E3">
-        <v>0.006174302220107622</v>
+        <v>0.00648446477114007</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -730,16 +730,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3.443534520072915E-07</v>
+        <v>3.397047964529607E-06</v>
       </c>
       <c r="C4">
-        <v>6.845799315304191E-06</v>
+        <v>3.246107553390979E-05</v>
       </c>
       <c r="D4">
-        <v>0.001111119351128833</v>
+        <v>0.006270289992800229</v>
       </c>
       <c r="E4">
-        <v>0.006154403591514441</v>
+        <v>0.007025531601665832</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -747,16 +747,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.848515343462404E-07</v>
+        <v>1.823860200208514E-06</v>
       </c>
       <c r="C5">
-        <v>7.790873068257631E-06</v>
+        <v>4.124207012744105E-05</v>
       </c>
       <c r="D5">
-        <v>0.002361937477439513</v>
+        <v>0.01240009647204811</v>
       </c>
       <c r="E5">
-        <v>0.00981617050798976</v>
+        <v>0.009771097180398069</v>
       </c>
     </row>
   </sheetData>

--- a/Results/Sensitivity/EOL-RIR/Price/EOL_RIR_hist_price_Max.xlsx
+++ b/Results/Sensitivity/EOL-RIR/Price/EOL_RIR_hist_price_Max.xlsx
@@ -414,13 +414,13 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>1.625819899935208E-06</v>
+        <v>1.624997844765925E-06</v>
       </c>
       <c r="D2">
-        <v>0.005885782825730004</v>
+        <v>0.004327962216169592</v>
       </c>
       <c r="E2">
-        <v>0.006492109438477343</v>
+        <v>0.004954444338515564</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -428,16 +428,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.183980475909259E-12</v>
+        <v>2.183968937109617E-12</v>
       </c>
       <c r="C3">
-        <v>7.919668242014081E-05</v>
+        <v>7.863771111478995E-05</v>
       </c>
       <c r="D3">
-        <v>0.005501068836496137</v>
+        <v>0.003773862252567578</v>
       </c>
       <c r="E3">
-        <v>0.005498836806399566</v>
+        <v>0.004405377924640967</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -445,16 +445,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3.409259119931335E-14</v>
+        <v>3.409239115768776E-14</v>
       </c>
       <c r="C4">
-        <v>7.154027686980761E-05</v>
+        <v>7.112191862264318E-05</v>
       </c>
       <c r="D4">
-        <v>0.003927863988361095</v>
+        <v>0.003084289105169288</v>
       </c>
       <c r="E4">
-        <v>0.004603584064156631</v>
+        <v>0.003890045279137931</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -465,13 +465,13 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>1.587093575472107E-09</v>
+        <v>1.583093649904029E-09</v>
       </c>
       <c r="D5">
-        <v>0.0002009765232936477</v>
+        <v>0.0001705074686156489</v>
       </c>
       <c r="E5">
-        <v>0.0003658129441505158</v>
+        <v>0.0003248552659786882</v>
       </c>
     </row>
   </sheetData>
@@ -601,16 +601,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.278497091721097E-06</v>
+        <v>3.278472098474135E-06</v>
       </c>
       <c r="C2">
-        <v>0.002541871850645688</v>
+        <v>0.0025272965822567</v>
       </c>
       <c r="D2">
-        <v>0.5379000242912599</v>
+        <v>0.3647353462301753</v>
       </c>
       <c r="E2">
-        <v>0.4848590208778999</v>
+        <v>0.3329926493422712</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -618,16 +618,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.229370101113288E-05</v>
+        <v>2.22924718813326E-05</v>
       </c>
       <c r="C3">
-        <v>0.009197341277647557</v>
+        <v>0.00911755121305614</v>
       </c>
       <c r="D3">
-        <v>0.3863510865451887</v>
+        <v>0.2590053605817614</v>
       </c>
       <c r="E3">
-        <v>0.3402597778765012</v>
+        <v>0.2556986289008428</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -635,16 +635,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6.612099022439717E-05</v>
+        <v>6.611256234481376E-05</v>
       </c>
       <c r="C4">
-        <v>0.002447260422877557</v>
+        <v>0.002440576610812275</v>
       </c>
       <c r="D4">
-        <v>0.2766023524654511</v>
+        <v>0.2198080158901728</v>
       </c>
       <c r="E4">
-        <v>0.3027710330745292</v>
+        <v>0.2575291483701416</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -652,16 +652,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.076994439830034E-05</v>
+        <v>2.076903987060008E-05</v>
       </c>
       <c r="C5">
-        <v>0.005407093418076853</v>
+        <v>0.005351015551773063</v>
       </c>
       <c r="D5">
-        <v>0.5124365740692156</v>
+        <v>0.3156820730433227</v>
       </c>
       <c r="E5">
-        <v>0.3561425361412697</v>
+        <v>0.2600971549971024</v>
       </c>
     </row>
   </sheetData>
@@ -696,16 +696,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>4.96652837099915E-07</v>
+        <v>4.966311329314386E-07</v>
       </c>
       <c r="C2">
-        <v>3.462735458016471E-05</v>
+        <v>3.454741537111926E-05</v>
       </c>
       <c r="D2">
-        <v>0.01385766416475183</v>
+        <v>0.009305532546032724</v>
       </c>
       <c r="E2">
-        <v>0.0139053799804532</v>
+        <v>0.00862110342949683</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -713,16 +713,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>5.30035999530297E-07</v>
+        <v>5.299988190966853E-07</v>
       </c>
       <c r="C3">
-        <v>0.0001164057132748931</v>
+        <v>0.0001154307604995803</v>
       </c>
       <c r="D3">
-        <v>0.006708009055267363</v>
+        <v>0.004900770646459259</v>
       </c>
       <c r="E3">
-        <v>0.00648446477114007</v>
+        <v>0.004790782953538905</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -730,16 +730,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3.397047964529607E-06</v>
+        <v>3.396088080967769E-06</v>
       </c>
       <c r="C4">
-        <v>3.246107553390979E-05</v>
+        <v>3.239926736874637E-05</v>
       </c>
       <c r="D4">
-        <v>0.006270289992800229</v>
+        <v>0.005064313401933368</v>
       </c>
       <c r="E4">
-        <v>0.007025531601665832</v>
+        <v>0.006014344550262347</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -747,16 +747,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.823860200208514E-06</v>
+        <v>1.82357813169359E-06</v>
       </c>
       <c r="C5">
-        <v>4.124207012744105E-05</v>
+        <v>4.11437408643171E-05</v>
       </c>
       <c r="D5">
-        <v>0.01240009647204811</v>
+        <v>0.008674230610438876</v>
       </c>
       <c r="E5">
-        <v>0.009771097180398069</v>
+        <v>0.007152240119196929</v>
       </c>
     </row>
   </sheetData>
